--- a/steamcase/homepage/homepagecnfcase.xlsx
+++ b/steamcase/homepage/homepagecnfcase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\goods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>caseid</t>
   </si>
@@ -48,75 +48,30 @@
   </si>
   <si>
     <t>actualResult</t>
-  </si>
-  <si>
-    <t>media_add_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增一个文章正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"code":"000000"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tearDBdel_t_content_picture_byTitle
-tearDBdel_t_sku_byTitle
-tearDBdel_t_vendor_rel_byTitle
-tearDBdel_t_tag_rel_byTitle
-tearDBdel_t_resource_byTitle</t>
+    <t>/featured/index/configs/queryShowConfigs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addGoods</t>
+    <t>用户浏览首页推荐位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/steam-resource/admin/product/add-goods</t>
+    <t>queryHomeCnf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"resourceId": ""
-"title": "QUEENS PALACE高级定制馆1-自动化"
-"subTitle": "QUEEN'S PALACE高级定制馆-活动副标题"
-"deliverType": 0
-"vendorIdList": [3]
-"resourceTypeId": 11
-"content": "&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;fQueen’s Palace于2011年9月创立，是一家国内高级定制婚纱礼服奢侈品牌。自品牌创立以来，Queen’s Palace在沪上高定婚纱品牌的殿堂一直雄踞顶端，专注于婚纱定制的每一处细节。&lt;/p&gt;&lt;/body&gt;&lt;/html&gt;"
-"shareType": 1
-"shareTitle": "QUEENSPALACE高级定制馆-分享标题"
-"shareDescription": "QUEEN'S PALACE高级定制馆-分享描述"
-"sharePicturePath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101830_796382.jpg"
-"province": "重庆市"
-"city": "重庆郊县"
-"addressDetail": "肇嘉浜路356号(襄阳南路路口)"
-"thumbUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101738_928360.jpg"
-"bannerUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101741_710087.jpg"
-"imgListpicturePath1": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101747_909470.jpg"
-"imgListpicturePath2": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101749_880315.jpg"
-"cornerMask": "商品"
-"offShelfTime": 2764800000
-"entryIdList": [7]
-"tagIdList": [2]
-"skuName1": "套餐1"
-"skuId1": None
-"order1": 1
-"price1": "0.01"
-"originPrice1": "1000"
-"inventory1": "1000"
-"limitCount1": "2"
-"postPrice1": "0.01"
-"skuName2": "套餐2"
-"skuId2": None
-"order2": 2
-"price2": "0.02"
-"originPrice2": "1200"
-"inventory2": "2000"
-"limitCount2": "3"
-"postPrice2": "0.01"
-"state": 1</t>
+    <t>home_page_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"pageType":"0"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -539,25 +494,23 @@
     </row>
     <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/steamcase/homepage/homepagecnfcase.xlsx
+++ b/steamcase/homepage/homepagecnfcase.xlsx
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/featured/index/configs/queryShowConfigs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户浏览首页推荐位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   <si>
     <t>"phoneNo":"18916899938"
 "pageType":"0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/featured/index/configs/queryShowConfigs-home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,13 +451,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
@@ -494,20 +494,20 @@
     </row>
     <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/homepage/homepagecnfcase.xlsx
+++ b/steamcase/homepage/homepagecnfcase.xlsx
@@ -66,12 +66,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/featured/index/configs/queryShowConfigs-home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"phoneNo":"18916899938"
-"pageType":"0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/featured/index/configs/queryShowConfigs-home</t>
+"pageType":"0"
+"position":"'01','02','10'"
+"dbquerysign":"select_t_sku_HomePage"
+"removePositionLs":['05','07']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,12 +495,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -507,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/homepage/homepagecnfcase.xlsx
+++ b/steamcase/homepage/homepagecnfcase.xlsx
@@ -72,7 +72,7 @@
   <si>
     <t>"phoneNo":"18916899938"
 "pageType":"0"
-"position":"'01','02','10'"
+"position":"04"
 "dbquerysign":"select_t_sku_HomePage"
 "removePositionLs":['05','07']</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/homepage/homepagecnfcase.xlsx
+++ b/steamcase/homepage/homepagecnfcase.xlsx
@@ -72,7 +72,7 @@
   <si>
     <t>"phoneNo":"18916899938"
 "pageType":"0"
-"position":"04"
+"position":"'01','02','10'"
 "dbquerysign":"select_t_sku_HomePage"
 "removePositionLs":['05','07']</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/homepage/homepagecnfcase.xlsx
+++ b/steamcase/homepage/homepagecnfcase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0AE6D2A3-C03A-4B9A-AD53-912ED2573949}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
@@ -54,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户浏览首页推荐位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>queryHomeCnf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,11 +74,15 @@
 "removePositionLs":['05','07']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>用户浏览首页-热门推荐运营位配置内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,20 +498,20 @@
     </row>
     <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/homepage/homepagecnfcase.xlsx
+++ b/steamcase/homepage/homepagecnfcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0AE6D2A3-C03A-4B9A-AD53-912ED2573949}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{23A0BDE2-A279-40A2-B174-785A7141CE2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>caseid</t>
   </si>
@@ -60,10 +60,6 @@
   </si>
   <si>
     <t>home_page_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/featured/index/configs/queryShowConfigs-home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,6 +72,41 @@
   </si>
   <si>
     <t>用户浏览首页-热门推荐运营位配置内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户浏览发现页-运营位配置</t>
+  </si>
+  <si>
+    <t>queryFindCnf</t>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"pageType":"1"
+"position":"04"
+"dbquerysign":"select_t_sku_HomePage"
+"removePositionLs":['05','07']</t>
+  </si>
+  <si>
+    <t>find_page_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户创新大赛页-计算推荐内容列表</t>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"pageType":"2"
+"position":"04"
+"dbquerysign":"select_t_sku_HomePage"
+"removePositionLs":['05','07']</t>
+  </si>
+  <si>
+    <t>home_page_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/featured/index/configs/queryShowConfigs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,16 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="55.625" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
@@ -501,19 +532,59 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/steamcase/homepage/homepagecnfcase.xlsx
+++ b/steamcase/homepage/homepagecnfcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{23A0BDE2-A279-40A2-B174-785A7141CE2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B8F75B9A-23A4-4504-BAF0-5DFC976EBCC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>caseid</t>
   </si>
@@ -59,54 +59,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>home_page_1</t>
+    <t>/featured/index/configs/queryShowConfigs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户浏览首页配置内容-轮播图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户浏览首页配置内容-今日推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户浏览首页配置内容-动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户浏览首页配置内容-单独运营位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"phoneNo":"18916899938"
 "pageType":"0"
-"position":"'01','02','10'"
-"dbquerysign":"select_t_sku_HomePage"
-"removePositionLs":['05','07']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户浏览首页-热门推荐运营位配置内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户浏览发现页-运营位配置</t>
+"position":"01"
+"dbquerysign":"select_t_sku_HomePage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"pageType":"0"
+"position":"02"
+"dbquerysign":"select_t_sku_HomePage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"pageType":"0"
+"position":"07"
+"dbquerysign":"select_t_sku_HomePage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"pageType":"0"
+"position":"10"
+"dbquerysign":"select_t_sku_HomePage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>queryFindCnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户浏览首页配置内容-分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"pageType":"0"
+"position":"05"
+"dbquerysign":"select_t_sku_HomePage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户浏览发现页配置内容-分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"phoneNo":"18916899938"
 "pageType":"1"
-"position":"04"
-"dbquerysign":"select_t_sku_HomePage"
-"removePositionLs":['05','07']</t>
-  </si>
-  <si>
-    <t>find_page_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户创新大赛页-计算推荐内容列表</t>
+"position":"05"
+"dbquerysign":"select_t_sku_HomePage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnf_page_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnf_page_2</t>
+  </si>
+  <si>
+    <t>cnf_page_3</t>
+  </si>
+  <si>
+    <t>cnf_page_4</t>
+  </si>
+  <si>
+    <t>cnf_page_5</t>
+  </si>
+  <si>
+    <t>cnf_find_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新大赛页面页-轮播图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新大赛页面页-独立运营位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"phoneNo":"18916899938"
 "pageType":"2"
-"position":"04"
-"dbquerysign":"select_t_sku_HomePage"
-"removePositionLs":['05','07']</t>
-  </si>
-  <si>
-    <t>home_page_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/featured/index/configs/queryShowConfigs</t>
+"position":"08"
+"dbquerysign":"select_t_sku_HomePage"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnf_inov_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnf_inov_2</t>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"pageType":"2"
+"position":"06"
+"dbquerysign":"select_t_sku_HomePage"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,62 +601,162 @@
     </row>
     <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
         <v>8</v>
       </c>
     </row>
